--- a/0. Source Layer/components/reports/Dragsholm_Sparekasse(Questura).xlsx
+++ b/0. Source Layer/components/reports/Dragsholm_Sparekasse(Questura).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,50 +476,40 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bank_name</t>
+          <t>questura_country</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bank_country</t>
+          <t>bankruptcy</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>questura_country</t>
+          <t>inscred</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>bankruptcy</t>
+          <t>fraudis</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>inscred</t>
+          <t>investegation</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>fraudis</t>
+          <t>accused</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>investegation</t>
+          <t>condamned</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>accused</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>condamned</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>civ_pass</t>
         </is>
@@ -527,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0e83a8d8-b870-4565-b4c5-bdae05f42730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tele Celular Sul Participacoes S.A.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12/7/1961</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>48</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>b04575ab-57a6-4892-a506-18c3a3833bfe</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Fomento Economico Mexicano S.A. de C.V.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7/8/1977</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>29</v>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>prototype</t>
@@ -559,79 +549,69 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>304-380-1927</t>
+          <t>667-875-8361</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>enquiries@fomentoeconomicomexicanosadecv.org</t>
+          <t>sales@telecelularsulparticipacoessa.org</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Dragsholm Sparekasse</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
           <t>Denmark</t>
         </is>
       </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>$94,179,470,023.00</t>
         </is>
       </c>
       <c r="M2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>$17,950,570,219.00</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
       </c>
       <c r="P2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" t="b">
         <v>1</v>
-      </c>
-      <c r="S2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>df98f86a-e21a-4c11-bb75-716aea0217fa</t>
+          <t>3b9e17d2-96d2-49a6-a4e9-745dcdad023e</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aluminum Corp of China Ltd.</t>
+          <t>Bennett Environmental Inc.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5/16/1982</t>
+          <t>5/15/1962</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -640,51 +620,41 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>814-039-1974</t>
+          <t>561-685-4405</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>marketing@aluminumcorpofchinaltd.org</t>
+          <t>sales@bennettenvironmentalinc.org</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Dragsholm Sparekasse</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
           <t>Denmark</t>
         </is>
       </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>$10,323,383,191.00</t>
         </is>
       </c>
       <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>$65,186,747,296.00</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
       </c>
       <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
         <v>1</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
